--- a/制度（せいど）.xlsx
+++ b/制度（せいど）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D846AC8-4F28-462C-B8BB-05C1E284A27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022660CF-DEBE-4C49-84CD-C2A4F0BFE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1152" yWindow="1152" windowWidth="11460" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生活（せいかつ）" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
   <si>
     <t>禁止</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,14 @@
   </si>
   <si>
     <t>だいへんかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きぼ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406CE1A-A3C9-46FA-8C7D-A435EF71B25A}">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1541,6 +1549,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1551,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F013D5-1EE7-4F06-AEEB-5ABB1BDB8916}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/制度（せいど）.xlsx
+++ b/制度（せいど）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022660CF-DEBE-4C49-84CD-C2A4F0BFE6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2DFEC-69E5-4173-898D-A51A7DCEA253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生活（せいかつ）" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
   <si>
     <t>禁止</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,12 +824,47 @@
     <t>きぼ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>衝突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうとつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冲突，矛盾）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衝突防止｜しょうとつぼうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +899,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -885,10 +928,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1332,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406CE1A-A3C9-46FA-8C7D-A435EF71B25A}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1389,7 @@
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1434,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1405,7 +1449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1466,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1439,7 +1483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +1497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
@@ -1467,7 +1511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -1481,7 +1525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1498,7 +1542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1515,7 +1559,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -1532,7 +1576,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -1549,12 +1593,26 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1567,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F013D5-1EE7-4F06-AEEB-5ABB1BDB8916}">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/制度（せいど）.xlsx
+++ b/制度（せいど）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2DFEC-69E5-4173-898D-A51A7DCEA253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74945D83-0E3C-4E8B-8D96-B58D7B759FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t>禁止</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,6 +857,50 @@
   </si>
   <si>
     <t>衝突防止｜しょうとつぼうし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貢献度｜こうけんど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慣例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんれい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もじ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いほう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1376,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406CE1A-A3C9-46FA-8C7D-A435EF71B25A}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1615,6 +1659,41 @@
         <v>172</v>
       </c>
     </row>
+    <row r="17" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F013D5-1EE7-4F06-AEEB-5ABB1BDB8916}">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A2:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1821,121 +1900,129 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
